--- a/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
+++ b/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\yes breed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F659CD03-BCAB-4B41-9AA2-41937CE43EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC8E1E-7276-4FBA-A40D-CB9E1F9BA4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -57,25 +57,6 @@
     <t>FilesTab</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
- WHERE labels(parent)[0] IN ["diagnosis"]  
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
     <t>MATCH (s:study)
   WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
   MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
@@ -143,6 +124,23 @@
         coalesce(demo.weight, '') AS `Weight (kg)`,
         coalesce(diag.best_response, '') AS `Response to Treatment`,
         coalesce(co.cohort_description, '') AS `Cohort`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c) 
+ WHERE labels(parent)[0] IN ["diagnosis"]  
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -514,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,16 +547,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="290" x14ac:dyDescent="0.35">
@@ -566,16 +564,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="261" x14ac:dyDescent="0.35">
@@ -583,16 +581,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
+++ b/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC8E1E-7276-4FBA-A40D-CB9E1F9BA4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA428AA7-281B-49C8-BB6C-2339BA8AE8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -104,6 +104,23 @@
   <si>
     <t>MATCH (f:file)--&gt;(parent)
 WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c) 
+ WHERE labels(parent)[0] IN ["diagnosis"]  
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
  WHERE labels(parent)[0] IN ["diagnosis"] 
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
 MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
@@ -122,25 +139,7 @@
         coalesce(demo.sex, '') AS Sex ,
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
- WHERE labels(parent)[0] IN ["diagnosis"]  
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -512,20 +511,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -542,12 +541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="319" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -559,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -576,12 +575,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>

--- a/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
+++ b/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\to update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\TestInputFiles_Sofia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FFD7B5-900E-4715-AAA9-403CD662AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D7D77-0ECB-428B-A9F0-1483F6544698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>WebExcel</t>
   </si>
@@ -85,46 +85,6 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
- WHERE labels(parent)[0] IN ["diagnosis"] 
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
- MATCH (co:cohort)&lt;-[*]-(c)
-  WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-coalesce(co.cohort_description, '') AS `Cohort`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
- WHERE labels(parent)[0] IN ["diagnosis"]  
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(diag.disease_term,'') AS Diagnosis </t>
-  </si>
-  <si>
     <t xml:space="preserve">OPTIONAL MATCH (sf:file)--&gt;(ss:study)
 WHERE head(labels(ss)) IN ["diagnosis"]
 WITH count(distinct sf) AS study_files
@@ -142,6 +102,94 @@
     count(distinct f) AS `Case Files`,
     study_files AS `Study Files`
     </t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+WHERE labels(parent)[0] IN ["diagnosis"]  
+OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
+WITH
+        f, parent, c, demo, diag, s, samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, parent, c, demo, diag, s, samp,
+        f.file_size /(1024^i) AS value, 
+        10^precision AS factor,
+        units[i] as unit
+WITH    
+        f, parent, c, demo, diag, s, samp, unit,
+        round(factor * value)/factor AS size
+RETURN 
+        coalesce(f.file_name, '') AS `File Name`,
+        coalesce(f.file_type, '') AS `File Type`,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+        coalesce(samp.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis</t>
+  </si>
+  <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+MATCH (f:file)--&gt;(s:study)
+WITH DISTINCT f, parent
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE labels(parent)[0] IN ["diagnosis"]  
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+WHERE labels(parent)[0] IN ["diagnosis"] 
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c) 
+ MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+    coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`</t>
   </si>
 </sst>
 </file>
@@ -191,9 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,86 +560,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
+++ b/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\TestInputFiles_Sofia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D7D77-0ECB-428B-A9F0-1483F6544698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C2A14-DECC-4053-B344-B673B42A13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -177,7 +177,7 @@
  MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
  MATCH (samp:sample)--&gt;(c) 
  MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age
+WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
 RETURN  coalesce(c.case_id, '') AS `Case ID` ,
         coalesce(s.clinical_study_designation, '') AS `Study Code` ,
         coalesce(s.clinical_study_type, '') AS  `Study Type`,
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>

--- a/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
+++ b/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C2A14-DECC-4053-B344-B673B42A13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE6A42F-8EB2-42FC-8C0A-4581A776A4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,53 @@
     <t>TC01_Canine_Filter_FileAssoc-diagnosis_WebData.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">OPTIONAL MATCH (sf:file)--&gt;(ss:study)
+WHERE head(labels(ss)) IN ["diagnosis"]
+WITH count(distinct sf) AS study_files
+OPTIONAL MATCH (f:file)--&gt;(parent)
+WHERE head(labels(parent)) IN ["diagnosis"]
+OPTIONAL MATCH (f)-[*]-&gt;(c:case)
+OPTIONAL MATCH (demo:demographic)--&gt;(c)--&gt;(s:study)--&gt;(p:program)
+OPTIONAL MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+RETURN
+	count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    study_files AS `Study Files`
+    </t>
+  </si>
+  <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+WHERE labels(parent)[0] IN ["diagnosis"] 
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c) 
+ MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+    coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+       Order by c.case_id LIMIT 100</t>
+  </si>
+  <si>
     <t>MATCH (f:file)--&gt;(parent)
 WITH DISTINCT f, parent
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
@@ -82,26 +129,8 @@
         coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
         coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTIONAL MATCH (sf:file)--&gt;(ss:study)
-WHERE head(labels(ss)) IN ["diagnosis"]
-WITH count(distinct sf) AS study_files
-OPTIONAL MATCH (f:file)--&gt;(parent)
-WHERE head(labels(parent)) IN ["diagnosis"]
-OPTIONAL MATCH (f)-[*]-&gt;(c:case)
-OPTIONAL MATCH (demo:demographic)--&gt;(c)--&gt;(s:study)--&gt;(p:program)
-OPTIONAL MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-RETURN
-	count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    study_files AS `Study Files`
-    </t>
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+        Order by samp.sample_id LIMIT 100</t>
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
@@ -134,10 +163,8 @@
         coalesce(samp.sample_id, '') AS `Sample ID`,
         coalesce(c.case_id, '') AS `Case ID`,
         coalesce(demo.breed,'') AS Breed ,
-        coalesce(diag.disease_term,'') AS Diagnosis</t>
-  </si>
-  <si>
-    <t>StudyFilesTab</t>
+        coalesce(diag.disease_term,'') AS Diagnosis
+        Order By f.file_name LIMIT 100</t>
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
@@ -165,31 +192,9 @@
   coalesce(f.file_description, '') AS `Description`,
   coalesce(f.file_format, '') AS  Format,
   CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-WHERE labels(parent)[0] IN ["diagnosis"] 
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
- MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-    coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`</t>
+  coalesce(s.clinical_study_designation,'') AS `Study Code`
+    order by 'File Name' asc
+  limit 100</t>
   </si>
 </sst>
 </file>
@@ -562,21 +567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,15 +598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -610,15 +615,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -627,15 +632,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -644,15 +649,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>

--- a/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
+++ b/InputFiles/TC01_Canine_Filter_FileAssoc-diagnosis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C2A14-DECC-4053-B344-B673B42A13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B1014-0C13-4C59-A5C2-E4B148D79FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -63,28 +63,6 @@
     <t>TC01_Canine_Filter_FileAssoc-diagnosis_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
- WHERE labels(parent)[0] IN ["diagnosis"]  
-MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPTIONAL MATCH (sf:file)--&gt;(ss:study)
 WHERE head(labels(ss)) IN ["diagnosis"]
 WITH count(distinct sf) AS study_files
@@ -102,39 +80,6 @@
     count(distinct f) AS `Case Files`,
     study_files AS `Study Files`
     </t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-WHERE labels(parent)[0] IN ["diagnosis"]  
-OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
-WITH
-        f, parent, c, demo, diag, s, samp,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
-        2 as precision
-WITH
-        f, parent, c, demo, diag, s, samp,
-        f.file_size /(1024^i) AS value, 
-        10^precision AS factor,
-        units[i] as unit
-WITH    
-        f, parent, c, demo, diag, s, samp, unit,
-        round(factor * value)/factor AS size
-RETURN 
-        coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-        coalesce(samp.sample_id, '') AS `Sample ID`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed ,
-        coalesce(diag.disease_term,'') AS Diagnosis</t>
   </si>
   <si>
     <t>StudyFilesTab</t>
@@ -190,6 +135,63 @@
 coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
        coalesce(diag.best_response, '') AS `Response to Treatment`,
        coalesce(co.cohort_description, '') AS `Cohort`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c) 
+ WHERE labels(parent)[0] IN ["diagnosis"]  
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed , 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+        order by samp.sample_id asc
+limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+WHERE labels(parent)[0] IN ["diagnosis"]  
+OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
+WITH
+        f, parent, c, demo, diag, s, samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, parent, c, demo, diag, s, samp,
+        f.file_size /(1024^i) AS value, 
+        10^precision AS factor,
+        units[i] as unit
+WITH    
+        f, parent, c, demo, diag, s, samp, unit,
+        round(factor * value)/factor AS size
+RETURN 
+        coalesce(f.file_name, '') AS `File Name`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_type, '') AS `File Type`,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(samp.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis</t>
   </si>
 </sst>
 </file>
@@ -562,21 +564,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,15 +595,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -610,15 +612,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -627,15 +629,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -644,15 +646,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
